--- a/doc/D4/Budget.xlsx
+++ b/doc/D4/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogda\Desktop\Workspace-21.1\Projects\Acme-Planner\doc\D4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80273706-09F5-452A-B7E3-9D471A978373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04434F02-BEC1-4D51-A23D-5221545D39DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Budget</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Real personnel costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4 months project amortization</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -363,6 +369,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF81983B-6797-4DAB-9661-559EA0F2B9F0}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,8 +721,9 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -730,6 +740,9 @@
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="23" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -754,6 +767,10 @@
         <f>E4-C4</f>
         <v>0</v>
       </c>
+      <c r="G4" s="13">
+        <f>C4/3</f>
+        <v>61.111111111111114</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -775,8 +792,12 @@
         <v>200</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F7" si="3">E5-C5</f>
+        <f t="shared" ref="F5:G7" si="3">E5-C5</f>
         <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5:G7" si="4">C5/3</f>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -801,6 +822,10 @@
       <c r="F6" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="4"/>
+        <v>55.55555555555555</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -833,6 +858,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G7" s="13">
+        <f t="shared" si="4"/>
+        <v>77.777777777777786</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -864,6 +893,10 @@
       <c r="F8" s="14">
         <f>E8-C8</f>
         <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <f>C8/3</f>
+        <v>261.11111111111114</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -956,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" ref="F12" si="4">C12*E12</f>
+        <f t="shared" ref="F12" si="5">C12*E12</f>
         <v>25</v>
       </c>
       <c r="H12" s="1"/>
@@ -982,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" ref="F13" si="5">C13*E13</f>
+        <f t="shared" ref="F13" si="6">C13*E13</f>
         <v>50</v>
       </c>
       <c r="H13" s="1"/>
@@ -1008,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" ref="F14" si="6">C14*E14</f>
+        <f t="shared" ref="F14" si="7">C14*E14</f>
         <v>50</v>
       </c>
       <c r="H14" s="1"/>
@@ -1034,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" ref="F15" si="7">C15*E15</f>
+        <f t="shared" ref="F15" si="8">C15*E15</f>
         <v>50</v>
       </c>
       <c r="H15" s="1"/>
@@ -1156,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" ref="F20:F23" si="8">C20*E20</f>
+        <f t="shared" ref="F20:F23" si="9">C20*E20</f>
         <v>25</v>
       </c>
       <c r="H20" s="1"/>
@@ -1182,7 +1215,7 @@
         <v>1.5</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.5</v>
       </c>
     </row>
@@ -1201,7 +1234,7 @@
         <v>1.75</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.75</v>
       </c>
     </row>
@@ -1220,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
@@ -1243,6 +1276,11 @@
       <c r="F24" s="20">
         <f>SUM(F19:F23)</f>
         <v>168.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/D4/Budget.xlsx
+++ b/doc/D4/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogda\Desktop\Workspace-21.1\Projects\Acme-Planner\doc\D4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuilleX7\Documents\GitHub\Acme-Planner\doc\D4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04434F02-BEC1-4D51-A23D-5221545D39DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A4559-3EB3-481D-A89A-AE443222E70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
+    <workbookView xWindow="17970" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
         <v>200</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:G7" si="3">E5-C5</f>
+        <f t="shared" ref="F5:F7" si="3">E5-C5</f>
         <v>0</v>
       </c>
       <c r="G5" s="13">
@@ -986,11 +986,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" ref="F12" si="5">C12*E12</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" ref="F13" si="6">C13*E13</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" ref="F14" si="7">C14*E14</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" ref="F15" si="8">C15*E15</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1092,11 +1092,11 @@
       </c>
       <c r="E16" s="21">
         <f>SUM(E11:E15)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F16" s="20">
         <f>SUM(F11:F15)</f>
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="17">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="F19" s="13">
         <f>C19*E19</f>
-        <v>37.5</v>
+        <v>8.25</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="17">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" ref="F20:F23" si="9">C20*E20</f>
-        <v>25</v>
+        <v>87.5</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1212,11 +1212,11 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="17">
-        <v>1.5</v>
+        <v>3.91</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="9"/>
-        <v>37.5</v>
+        <v>97.75</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="17">
-        <v>1.75</v>
+        <v>4.08</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="9"/>
-        <v>43.75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1250,11 +1250,11 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="17">
-        <v>1</v>
+        <v>3.66</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="E24" s="21">
         <f>SUM(E19:E23)</f>
-        <v>6.75</v>
+        <v>15.48</v>
       </c>
       <c r="F24" s="20">
         <f>SUM(F19:F23)</f>
-        <v>168.75</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">

--- a/doc/D4/Budget.xlsx
+++ b/doc/D4/Budget.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuilleX7\Documents\GitHub\Acme-Planner\doc\D4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A4559-3EB3-481D-A89A-AE443222E70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C40218-E0C6-4ACE-A810-3F51FAE5CCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6FE04B6-807F-41B9-BCEE-B9B32721F2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -372,6 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF81983B-6797-4DAB-9661-559EA0F2B9F0}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +715,8 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -768,8 +776,8 @@
         <v>0</v>
       </c>
       <c r="G4" s="13">
-        <f>C4/3</f>
-        <v>61.111111111111114</v>
+        <f>B4-C4/3</f>
+        <v>488.88888888888891</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -796,8 +804,8 @@
         <v>0</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G7" si="4">C5/3</f>
-        <v>66.666666666666671</v>
+        <f t="shared" ref="G5:G7" si="4">B5-C5/3</f>
+        <v>533.33333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -825,7 +833,7 @@
       </c>
       <c r="G6" s="13">
         <f t="shared" si="4"/>
-        <v>55.55555555555555</v>
+        <v>444.44444444444446</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -860,7 +868,7 @@
       </c>
       <c r="G7" s="13">
         <f t="shared" si="4"/>
-        <v>77.777777777777786</v>
+        <v>622.22222222222217</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -895,8 +903,8 @@
         <v>0</v>
       </c>
       <c r="G8" s="14">
-        <f>C8/3</f>
-        <v>261.11111111111114</v>
+        <f>SUM(G4:G7)</f>
+        <v>2088.8888888888887</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -915,6 +923,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -940,6 +949,7 @@
       <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -966,6 +976,7 @@
         <f>C11*E11</f>
         <v>25</v>
       </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -992,6 +1003,7 @@
         <f t="shared" ref="F12" si="5">C12*E12</f>
         <v>75</v>
       </c>
+      <c r="G12" s="24"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1018,6 +1030,7 @@
         <f t="shared" ref="F13" si="6">C13*E13</f>
         <v>75</v>
       </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1044,6 +1057,7 @@
         <f t="shared" ref="F14" si="7">C14*E14</f>
         <v>75</v>
       </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1070,6 +1084,7 @@
         <f t="shared" ref="F15" si="8">C15*E15</f>
         <v>75</v>
       </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1098,6 +1113,7 @@
         <f>SUM(F11:F15)</f>
         <v>325</v>
       </c>
+      <c r="G16" s="24"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1115,6 +1131,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="9"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1140,6 +1157,7 @@
       <c r="F18" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="G18" s="24"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1166,6 +1184,7 @@
         <f>C19*E19</f>
         <v>8.25</v>
       </c>
+      <c r="G19" s="24"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1192,6 +1211,7 @@
         <f t="shared" ref="F20:F23" si="9">C20*E20</f>
         <v>87.5</v>
       </c>
+      <c r="G20" s="24"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1218,6 +1238,7 @@
         <f t="shared" si="9"/>
         <v>97.75</v>
       </c>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1237,6 +1258,7 @@
         <f t="shared" si="9"/>
         <v>102</v>
       </c>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -1256,6 +1278,7 @@
         <f t="shared" si="9"/>
         <v>91.5</v>
       </c>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
@@ -1277,6 +1300,7 @@
         <f>SUM(F19:F23)</f>
         <v>387</v>
       </c>
+      <c r="G24" s="24"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
@@ -1284,7 +1308,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>